--- a/data/trans_dic/P19E_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Clase-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2090909009101005</v>
+        <v>0.2100524799742986</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1333305635288146</v>
+        <v>0.1316425042334305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1024292044954535</v>
+        <v>0.1043703871750749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06374799014014758</v>
+        <v>0.06429355377214983</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1699979597234478</v>
+        <v>0.1723269425907638</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1052451959683923</v>
+        <v>0.1066551069500593</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2944055039276368</v>
+        <v>0.3022074698213181</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1991261691856135</v>
+        <v>0.1966103671637473</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1766597613315567</v>
+        <v>0.1772375429469818</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1103364913595364</v>
+        <v>0.11528968438385</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2285128954183222</v>
+        <v>0.2323131722170374</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1477414707518448</v>
+        <v>0.1472139168589594</v>
       </c>
     </row>
     <row r="7">
@@ -694,7 +694,7 @@
         <v>0.2409723908168994</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.2055462526321846</v>
+        <v>0.2055462526321845</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.1622261895740368</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1932219901754912</v>
+        <v>0.2008697112461878</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1689334741354676</v>
+        <v>0.1696328021126062</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1269320439385701</v>
+        <v>0.1245132238309921</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08431532637670464</v>
+        <v>0.08318155182320085</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1735544258019194</v>
+        <v>0.1740035586245676</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1392495461847864</v>
+        <v>0.1381944732724069</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2881712843212342</v>
+        <v>0.2913091325754682</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2465644029444639</v>
+        <v>0.2437851519783128</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2065393468293921</v>
+        <v>0.2045739193538521</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1356177844033247</v>
+        <v>0.1360515801961228</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2366478227608632</v>
+        <v>0.2357470411495428</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1857686867440168</v>
+        <v>0.1866825011283704</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3057034466670788</v>
+        <v>0.3070130611237312</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2375331353903423</v>
+        <v>0.2331953498862194</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.138937874311509</v>
+        <v>0.133590979590888</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1052126013239347</v>
+        <v>0.1048665862089641</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2785480212141576</v>
+        <v>0.2783761490151725</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2065737617622206</v>
+        <v>0.2117002341591618</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3956274741055057</v>
+        <v>0.3914000920232916</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3232769839334516</v>
+        <v>0.3219942723840013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2647230763535647</v>
+        <v>0.2635754881534672</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1831526123793103</v>
+        <v>0.1838992294105272</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3522614167163697</v>
+        <v>0.3502545921577949</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2678217233642474</v>
+        <v>0.2729300700649085</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3665969451180883</v>
+        <v>0.3645559980504209</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2696458380685788</v>
+        <v>0.2704932027157882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.169653909669444</v>
+        <v>0.1687080765870479</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1225543158106495</v>
+        <v>0.1196300711137876</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2898339344425407</v>
+        <v>0.291426916640122</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2123331247152268</v>
+        <v>0.2112113166390809</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4257849147769344</v>
+        <v>0.4237863332809818</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3277390362757355</v>
+        <v>0.3276350410778751</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2271512430265402</v>
+        <v>0.2249915119640791</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1633586417381771</v>
+        <v>0.1600273848241504</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3311127500754938</v>
+        <v>0.3361673385812471</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2485809990268884</v>
+        <v>0.2479970971936614</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4019013526317833</v>
+        <v>0.4003239273129452</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3067365127725768</v>
+        <v>0.3103675301877464</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.267802000314206</v>
+        <v>0.2680498345797335</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.220232650289936</v>
+        <v>0.2189989164835576</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3379626911718605</v>
+        <v>0.3381746533599758</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2640441293718672</v>
+        <v>0.2633877801187748</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4864078860493445</v>
+        <v>0.4839660405969136</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3964593030438837</v>
+        <v>0.3938552944402156</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3342213606446903</v>
+        <v>0.3393122318490862</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2679539861366795</v>
+        <v>0.266024139884459</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3927591424327384</v>
+        <v>0.390597073939383</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3079562216584192</v>
+        <v>0.3059523407976612</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>0.298741093624282</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2113150089663139</v>
+        <v>0.211315008966314</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.2885168633046674</v>
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2030835210066223</v>
+        <v>0.2007416970660552</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.04403616954124256</v>
+        <v>0.04578278199309441</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2704597597660562</v>
+        <v>0.2691489487400517</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1861609301930634</v>
+        <v>0.186454461752519</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2659081846549037</v>
+        <v>0.2644917762985193</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1611576769946013</v>
+        <v>0.1619657885918762</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3134083744610112</v>
+        <v>0.3083337237956724</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1499676397988902</v>
+        <v>0.1473904471753416</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3295810764998047</v>
+        <v>0.3290936247957727</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2373070553747176</v>
+        <v>0.236133391817808</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3141707881119447</v>
+        <v>0.3157498810673421</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2063542815604758</v>
+        <v>0.208804884658925</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>0.3479810909756882</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.2542862380713976</v>
+        <v>0.2542862380713975</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.2396461961291421</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3312962051407013</v>
+        <v>0.3307547162930122</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2393807015015638</v>
+        <v>0.23898635375583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2253777872126665</v>
+        <v>0.2245673586992699</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1569012570456777</v>
+        <v>0.1586701259159216</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2816315310537126</v>
+        <v>0.28164512988616</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2009124230182021</v>
+        <v>0.2012466449781935</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.363538514455724</v>
+        <v>0.3655311987619226</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.270772586797061</v>
+        <v>0.2695023376530113</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2555180391422338</v>
+        <v>0.2531577857599686</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1785046258018808</v>
+        <v>0.1790335901054577</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3031335728168444</v>
+        <v>0.3031311889518111</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2197042885778117</v>
+        <v>0.2196787170907306</v>
       </c>
     </row>
     <row r="25">
@@ -1357,22 +1357,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>88405</v>
+        <v>88812</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>73317</v>
+        <v>72389</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>35250</v>
+        <v>35918</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>31099</v>
+        <v>31365</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>130379</v>
+        <v>132165</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>109216</v>
+        <v>110679</v>
       </c>
     </row>
     <row r="7">
@@ -1383,22 +1383,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>124477</v>
+        <v>127775</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>109498</v>
+        <v>108114</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>60795</v>
+        <v>60994</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>53826</v>
+        <v>56243</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>175257</v>
+        <v>178172</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>153316</v>
+        <v>152768</v>
       </c>
     </row>
     <row r="8">
@@ -1465,22 +1465,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>70741</v>
+        <v>73541</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>81516</v>
+        <v>81854</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>46743</v>
+        <v>45852</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>35633</v>
+        <v>35154</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>127452</v>
+        <v>127782</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>126042</v>
+        <v>125087</v>
       </c>
     </row>
     <row r="11">
@@ -1491,22 +1491,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>105504</v>
+        <v>106653</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>118976</v>
+        <v>117635</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>76058</v>
+        <v>75334</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>57315</v>
+        <v>57498</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>173786</v>
+        <v>173124</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>168149</v>
+        <v>168976</v>
       </c>
     </row>
     <row r="12">
@@ -1573,22 +1573,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>155771</v>
+        <v>156438</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>111228</v>
+        <v>109197</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>22651</v>
+        <v>21779</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>19587</v>
+        <v>19523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>187346</v>
+        <v>187230</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>135188</v>
+        <v>138543</v>
       </c>
     </row>
     <row r="15">
@@ -1599,22 +1599,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>201592</v>
+        <v>199438</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>151378</v>
+        <v>150778</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>43158</v>
+        <v>42971</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34097</v>
+        <v>34236</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>236924</v>
+        <v>235574</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>175271</v>
+        <v>178614</v>
       </c>
     </row>
     <row r="16">
@@ -1681,22 +1681,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>407568</v>
+        <v>405299</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>302785</v>
+        <v>303736</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>136846</v>
+        <v>136083</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>105433</v>
+        <v>102917</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>556011</v>
+        <v>559067</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>421097</v>
+        <v>418872</v>
       </c>
     </row>
     <row r="19">
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>473371</v>
+        <v>471149</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>368018</v>
+        <v>367901</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>183224</v>
+        <v>181482</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>140536</v>
+        <v>137670</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>635200</v>
+        <v>644896</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>492983</v>
+        <v>491825</v>
       </c>
     </row>
     <row r="20">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>240411</v>
+        <v>239467</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>173007</v>
+        <v>175055</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>193776</v>
+        <v>193956</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>181906</v>
+        <v>180887</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>446707</v>
+        <v>446987</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>367020</v>
+        <v>366108</v>
       </c>
     </row>
     <row r="23">
@@ -1815,22 +1815,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>290961</v>
+        <v>289501</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>223613</v>
+        <v>222144</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>241836</v>
+        <v>245520</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>221323</v>
+        <v>219729</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>519135</v>
+        <v>516278</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>428058</v>
+        <v>425273</v>
       </c>
     </row>
     <row r="24">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>57051</v>
+        <v>56393</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>10447</v>
+        <v>10861</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>281086</v>
+        <v>279724</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>154686</v>
+        <v>154930</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>351056</v>
+        <v>349186</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>172141</v>
+        <v>173005</v>
       </c>
     </row>
     <row r="27">
@@ -1923,22 +1923,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>88044</v>
+        <v>86618</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>35577</v>
+        <v>34965</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>342531</v>
+        <v>342024</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>197185</v>
+        <v>196210</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>414773</v>
+        <v>416857</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>220418</v>
+        <v>223036</v>
       </c>
     </row>
     <row r="28">
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1089746</v>
+        <v>1087965</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>819840</v>
+        <v>818490</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>776406</v>
+        <v>773614</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>567012</v>
+        <v>573405</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>1896577</v>
+        <v>1896668</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1414153</v>
+        <v>1416506</v>
       </c>
     </row>
     <row r="31">
@@ -2031,22 +2031,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>1195802</v>
+        <v>1202356</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>927353</v>
+        <v>923002</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>880236</v>
+        <v>872105</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>645083</v>
+        <v>646995</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>2041377</v>
+        <v>2041361</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1546423</v>
+        <v>1546243</v>
       </c>
     </row>
     <row r="32">
